--- a/medicine/Pharmacie/Eugène_Soubeiran/Eugène_Soubeiran.xlsx
+++ b/medicine/Pharmacie/Eugène_Soubeiran/Eugène_Soubeiran.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Soubeiran</t>
+          <t>Eugène_Soubeiran</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eugène Soubeiran (1797-1858)  est un pharmacien français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Soubeiran</t>
+          <t>Eugène_Soubeiran</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'origine cévenole[1], professeur adjoint de physique de l'École de pharmacie de Paris, pharmacien à l'Hôpital de la Salpêtrière, directeur des Hôpitaux et Hospices de Paris. Inventeur du chloroforme avec deux autres chercheurs, Soubeiran a été le premier à publier ses conclusions, mais il est difficile de déterminer qui a été le premier véritable découvreur. Thèse sur la nature chimique de la crème de tartre soluble par l'acide borique. Découvrit le cubèbe. Gendre de Louis-Augustin Bosc d'Antic. Membre de la Société de Pharmacie de Paris, il en fut le Président en 1840 et 1857 et le Secrétaire général de 1840 à 1855.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'origine cévenole, professeur adjoint de physique de l'École de pharmacie de Paris, pharmacien à l'Hôpital de la Salpêtrière, directeur des Hôpitaux et Hospices de Paris. Inventeur du chloroforme avec deux autres chercheurs, Soubeiran a été le premier à publier ses conclusions, mais il est difficile de déterminer qui a été le premier véritable découvreur. Thèse sur la nature chimique de la crème de tartre soluble par l'acide borique. Découvrit le cubèbe. Gendre de Louis-Augustin Bosc d'Antic. Membre de la Société de Pharmacie de Paris, il en fut le Président en 1840 et 1857 et le Secrétaire général de 1840 à 1855.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Soubeiran</t>
+          <t>Eugène_Soubeiran</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Manuel de pharmacie théorique et pratique, 1826
 Nouveau traité de pharmacie théorique; six éditions., tome 2
